--- a/Release Two Burndown Chart.xlsx
+++ b/Release Two Burndown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Story Points</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>Actual Tracking (Sprints)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Dylan: We weren't able to complete all user stories from sprint 3. With client agreement incomplete user stories were moved to sprint 4.</t>
+  </si>
+  <si>
+    <t>Dylan: All user stories in sprint 4 were completed</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Release One Burndown</a:t>
+              <a:t>Release Two Burndown</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
@@ -443,10 +452,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A30:C59"/>
+  <dimension ref="A30:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,9 +1698,10 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1698,8 +1711,11 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1707,10 +1723,10 @@
         <v>27</v>
       </c>
       <c r="C31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1720,86 +1736,95 @@
       <c r="C32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
